--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2905499.038379925</v>
+        <v>2903611.456863523</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9154600.442488944</v>
+        <v>9154600.442488942</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>330.5754487741078</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>112.8682054096739</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586846</v>
+        <v>8.787420751036338</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>238.4258463375498</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>173.3244323150252</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>101.6257152931841</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>112.2638403784901</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>95.68020095976658</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>84.6545924993103</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634823</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>118.4898845065119</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527423</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>88.30692799139941</v>
+        <v>75.06705067831034</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>169.7438101404416</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>94.16481274941221</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002163</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>8.328729309132724</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>256.032854633019</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>112.2536425510787</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>172.7067178467366</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965506</v>
+        <v>42.92025750556978</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801187</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>18.41695091577104</v>
+        <v>90.21779139437415</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897903</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571467</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523548</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298319</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.03409577002</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604798</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789442</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415255</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>882.8926947117851</v>
+        <v>1175.00952757579</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117851</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117851</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117851</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4352,10 +4352,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1659.631866751719</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1269.492534775907</v>
+        <v>1175.00952757579</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641985</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>62.81916439716883</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>62.81916439716883</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.334734821698</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
         <v>221.3323618866839</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2522.073906861631</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2522.073906861631</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>2522.073906861631</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>2522.073906861631</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y5" t="n">
-        <v>2131.93457488582</v>
+        <v>854.9003034538789</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4653,7 +4653,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005474</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>304.5083130726405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>304.5083130726405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>156.5952194902474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005474</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>546.109828622464</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C8" t="n">
-        <v>546.109828622464</v>
+        <v>575.4989583075089</v>
       </c>
       <c r="D8" t="n">
-        <v>546.109828622464</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>160.3215760242197</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>153.3760752750163</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>139.4526712136072</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>139.4526712136072</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.109828622464</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5033,16 +5033,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5063,28 +5063,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5206,13 +5206,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>835.4163915387941</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018335</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038162</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
@@ -5288,40 +5288,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>498.9056400965599</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845924</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528587</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.2811958984813</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1098.722239872251</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.722239872251</v>
+        <v>822.967214533373</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.722239872251</v>
+        <v>568.2827263274861</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.722239872251</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.722239872251</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>877.929660728721</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,67 +5498,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701563</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766205</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241954</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765182</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952639</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583033</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,25 +5753,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.2170914602862</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028611</v>
+        <v>192.3330639344396</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028603</v>
+        <v>192.3330639344396</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598088</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387593</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011515</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952645</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583037</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028638</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028627</v>
+        <v>192.3330639344398</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,37 +5987,37 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>2032.925401907737</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2312.465467126434</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.6350999123427</v>
+        <v>244.1070389581961</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581961</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581961</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581961</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6148,10 +6148,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.063975947119</v>
@@ -6160,7 +6160,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1490.503412669889</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1490.503412669889</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1201.374773883448</v>
+        <v>1129.22212203587</v>
       </c>
       <c r="V25" t="n">
-        <v>946.6902856775607</v>
+        <v>874.5376338299833</v>
       </c>
       <c r="W25" t="n">
-        <v>657.2731156406001</v>
+        <v>874.5376338299833</v>
       </c>
       <c r="X25" t="n">
-        <v>429.2835647425824</v>
+        <v>646.548082931966</v>
       </c>
       <c r="Y25" t="n">
-        <v>429.2835647425824</v>
+        <v>425.7555037884358</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
@@ -6227,16 +6227,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6245,25 +6245,25 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6303,19 +6303,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395484</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059517</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O27" t="n">
         <v>2123.441607278215</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>210.6046091886482</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028587</v>
@@ -6382,7 +6382,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688073</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1124.545030325236</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>835.4163915387942</v>
+        <v>874.9271131227921</v>
       </c>
       <c r="V28" t="n">
-        <v>835.4163915387942</v>
+        <v>620.2426249169052</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018335</v>
+        <v>620.2426249169052</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038161</v>
+        <v>392.2530740188879</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>392.2530740188879</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6485,13 +6485,13 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>167.8887746690279</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>583.6915747572993</v>
+        <v>439.5324299542192</v>
       </c>
       <c r="C31" t="n">
-        <v>470.5162571107635</v>
+        <v>326.3571123076831</v>
       </c>
       <c r="D31" t="n">
-        <v>376.1604829797988</v>
+        <v>283.0033168475113</v>
       </c>
       <c r="E31" t="n">
-        <v>284.0082546787766</v>
+        <v>283.0033168475113</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557757</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569673</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569673</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864675</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933507</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667517</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962063</v>
+        <v>997.6688721962057</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286026</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021649</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056077</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899273</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.811824899273</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1712.78727497015</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1479.419501465079</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1280.495878540563</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>1046.839573784973</v>
+        <v>902.680428981894</v>
       </c>
       <c r="X31" t="n">
-        <v>874.6108881683272</v>
+        <v>730.4517433652475</v>
       </c>
       <c r="Y31" t="n">
-        <v>709.5791743061681</v>
+        <v>565.420029503088</v>
       </c>
     </row>
     <row r="32">
@@ -6689,34 +6689,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6783,22 +6783,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103118</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,55 +6932,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860497</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,13 +7172,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7254,22 +7254,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7357,25 +7357,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7549,31 +7549,31 @@
         <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254952</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7585,16 +7585,16 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045201</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010311</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7786,10 +7786,10 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010317</v>
@@ -8058,7 +8058,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>213.2603911806632</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>199.7396287231143</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,28 +9243,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>96.03744927814591</v>
+        <v>41.75994765618395</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208057</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9726,16 +9726,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208057</v>
+        <v>8.406710013102128</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9951,22 +9951,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776742</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>213.2603911806631</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>29.47535963978223</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>38.86002301949912</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10902,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>73.64859338270696</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>165.9802687929766</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,22 +11382,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>148.1350559470645</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>79.43092547709139</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>133.2406330669899</v>
+        <v>146.4805103800789</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>82.39383318338638</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>52.26914989715696</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338706</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.5920806744706</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>30.20449776555835</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>54.99317854754911</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>48.84084321165265</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>50.49195888408547</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801207</v>
       </c>
       <c r="F31" t="n">
-        <v>71.80084047860291</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897883</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.2159888357149</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550459</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>769635.6044539642</v>
+        <v>769635.604453964</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>769635.604453964</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>769635.6044539639</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>769635.6044539639</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>800432.1057887087</v>
+        <v>800432.1057887085</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448193</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448199</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448196</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="F2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="G2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="H2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="I2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="J2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="K2" t="n">
+        <v>630574.3128851685</v>
+      </c>
+      <c r="L2" t="n">
+        <v>636307.3716448201</v>
+      </c>
+      <c r="M2" t="n">
         <v>636307.3716448197</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448199</v>
-      </c>
-      <c r="E2" t="n">
-        <v>606095.0425934488</v>
-      </c>
-      <c r="F2" t="n">
-        <v>606095.0425934488</v>
-      </c>
-      <c r="G2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="H2" t="n">
-        <v>606095.0425934481</v>
-      </c>
-      <c r="I2" t="n">
-        <v>606095.0425934483</v>
-      </c>
-      <c r="J2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="K2" t="n">
-        <v>630574.3128851681</v>
-      </c>
-      <c r="L2" t="n">
-        <v>636307.3716448202</v>
-      </c>
-      <c r="M2" t="n">
-        <v>636307.3716448203</v>
-      </c>
       <c r="N2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448204</v>
       </c>
       <c r="O2" t="n">
         <v>636307.3716448202</v>
       </c>
       <c r="P2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448203</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>2.695895773285884e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284588</v>
+        <v>44162.60530284566</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086653</v>
+        <v>10342.90680086683</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284573</v>
+        <v>44162.60530284568</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="C4" t="n">
         <v>147917.0487159209</v>
-      </c>
-      <c r="C4" t="n">
-        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007382</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007381</v>
+        <v>7916.731656007503</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007416</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007474</v>
+        <v>7916.731656007495</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007538</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007461</v>
+        <v>7916.731656007459</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020409</v>
+        <v>26081.35417020403</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732796</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732801</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732798</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30335.51889732796</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732797</v>
-      </c>
-      <c r="M4" t="n">
-        <v>30335.51889732799</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732795</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732798</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26494,22 +26494,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184436.634349055</v>
+        <v>-184436.6343490554</v>
       </c>
       <c r="C6" t="n">
-        <v>405531.2448654894</v>
+        <v>405531.2448654895</v>
       </c>
       <c r="D6" t="n">
-        <v>405531.2448654895</v>
+        <v>405531.2448654893</v>
       </c>
       <c r="E6" t="n">
-        <v>-18969.05148817139</v>
+        <v>-19066.51061414387</v>
       </c>
       <c r="F6" t="n">
-        <v>506190.9849887245</v>
+        <v>506093.5258627522</v>
       </c>
       <c r="G6" t="n">
-        <v>506190.9849887243</v>
+        <v>506093.5258627523</v>
       </c>
       <c r="H6" t="n">
-        <v>506190.9849887241</v>
+        <v>506093.5258627522</v>
       </c>
       <c r="I6" t="n">
-        <v>506190.9849887242</v>
+        <v>506093.5258627524</v>
       </c>
       <c r="J6" t="n">
-        <v>329767.7657961316</v>
+        <v>329670.3066701594</v>
       </c>
       <c r="K6" t="n">
-        <v>463702.1448818953</v>
+        <v>463683.6511439616</v>
       </c>
       <c r="L6" t="n">
-        <v>497913.8401266004</v>
+        <v>497913.8401265999</v>
       </c>
       <c r="M6" t="n">
-        <v>373455.7316936298</v>
+        <v>373455.7316936293</v>
       </c>
       <c r="N6" t="n">
-        <v>508256.7469274661</v>
+        <v>508256.7469274671</v>
       </c>
       <c r="O6" t="n">
-        <v>508256.7469274669</v>
+        <v>508256.7469274668</v>
       </c>
       <c r="P6" t="n">
-        <v>464094.1416246209</v>
+        <v>464094.1416246212</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26744,34 +26744,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541006</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26799,10 +26799,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855735</v>
+        <v>55.20325662855707</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108337</v>
+        <v>12.92863350108354</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855731</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="3">
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855735</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>39.15565190436126</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>273.3697332463797</v>
       </c>
     </row>
     <row r="3">
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060688</v>
+        <v>171.044559430901</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27582,7 +27582,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>126.8470454334578</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,22 +27664,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>77.89973519326406</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>43.79533272974717</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>174.2591579581009</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>259.0028406609164</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>67.27672374555095</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28059,13 +28059,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787189</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,19 +28087,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.768295854570421e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.045058871959617e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-8.045058871959617e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-8.045058871959617e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28141,13 +28141,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.045058871959617e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-8.045058871959617e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.045058871959617e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28327,25 +28327,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-8.045058871959617e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.045058871959617e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-8.045058871959617e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.045058871959617e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.607394677131228e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,22 +28375,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-8.045058871959617e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-8.045058871959617e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-8.045058871959617e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-8.045058871959617e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285573</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32473,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245897</v>
@@ -35021,10 +35021,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>350.1985191750489</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>363.8358297686024</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>482.1033309642226</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.556183571462</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>378.4011515192542</v>
+        <v>324.1236498972921</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556548</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,19 +36048,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>481.9867828282169</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523304</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556548</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36294,10 +36294,10 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523304</v>
+        <v>215.5001249446268</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556548</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36522,19 +36522,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336986</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>495.6240934217712</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>71.38553859468888</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412286</v>
+        <v>67.71102679412262</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584679</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084859</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075299</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.480134434161</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491603</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403581</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043209</v>
+        <v>94.42895660043185</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>321.2237252606072</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>406.8431667807198</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37783,7 +37783,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>476.4046458434428</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>430.4987581881726</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
